--- a/biology/Botanique/Haplophyllum/Haplophyllum.xlsx
+++ b/biology/Botanique/Haplophyllum/Haplophyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Haplophyllum est un genre de plantes appartenant à la famille des Rutaceae qui comprend plus de 150 espèces[3] (dont trois acceptées) se rencontrant pour la plupart dans la région pontique jusqu'à l'Iran. Haplophyllum linofillum se trouve dans la péninsule Ibérique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haplophyllum est un genre de plantes appartenant à la famille des Rutaceae qui comprend plus de 150 espèces (dont trois acceptées) se rencontrant pour la plupart dans la région pontique jusqu'à l'Iran. Haplophyllum linofillum se trouve dans la péninsule Ibérique.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Haplophyllum acutifolium
 Haplophyllum bastetanum
